--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -412,7 +412,7 @@
 </x:table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -695,7 +695,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -395,6 +395,74 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:dxfs count="2">
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
+      <x:fill>
+        <x:patternFill patternType="none">
+          <x:fgColor indexed="64"/>
+          <x:bgColor indexed="64"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
+      <x:fill>
+        <x:patternFill patternType="none">
+          <x:fgColor indexed="64"/>
+          <x:bgColor indexed="64"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+  </x:dxfs>
 </x:styleSheet>
 </file>
 
@@ -405,8 +473,8 @@
     <x:tableColumn id="1" name="FName"/>
     <x:tableColumn id="2" name="LName"/>
     <x:tableColumn id="3" name="Outcast"/>
-    <x:tableColumn id="4" name="DOB"/>
-    <x:tableColumn id="5" name="Income"/>
+    <x:tableColumn id="4" name="DOB" dataDxfId="0"/>
+    <x:tableColumn id="5" name="Income" dataDxfId="1"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -87,13 +87,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF6495ED"/>
-        <x:bgColor rgb="FF6495ED"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -87,13 +87,11 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF6495ED"/>
-        <x:bgColor rgb="FF6495ED"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -395,6 +393,68 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:dxfs count="2">
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
+      <x:fill>
+        <x:patternFill patternType="none"/>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
+      <x:fill>
+        <x:patternFill patternType="none"/>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+  </x:dxfs>
 </x:styleSheet>
 </file>
 
@@ -405,8 +465,8 @@
     <x:tableColumn id="1" name="FName"/>
     <x:tableColumn id="2" name="LName"/>
     <x:tableColumn id="3" name="Outcast"/>
-    <x:tableColumn id="4" name="DOB"/>
-    <x:tableColumn id="5" name="Income"/>
+    <x:tableColumn id="4" name="DOB" dataDxfId="0"/>
+    <x:tableColumn id="5" name="Income" dataDxfId="1"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -395,64 +395,20 @@
   </x:cellStyles>
   <x:dxfs count="2">
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -458,7 +458,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F6" totalsRowShown="0">
   <x:autoFilter ref="B2:F6"/>
   <x:tableColumns count="5">

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -395,20 +395,16 @@
   </x:cellStyles>
   <x:dxfs count="2">
     <x:dxf>
-      <x:font/>
       <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font/>
       <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -420,7 +420,7 @@
     <x:tableColumn id="4" name="DOB" dataDxfId="0"/>
     <x:tableColumn id="5" name="Income" dataDxfId="1"/>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -396,15 +396,9 @@
   <x:dxfs count="2">
     <x:dxf>
       <x:numFmt numFmtId="15" formatCode="d-MMM-yy"/>
-      <x:fill>
-        <x:patternFill patternType="none"/>
-      </x:fill>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
-      <x:fill>
-        <x:patternFill patternType="none"/>
-      </x:fill>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -274,10 +274,10 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -329,12 +329,12 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">

--- a/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/AddingRowToTables.xlsx
@@ -713,11 +713,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.640625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="6.570625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.240625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.880625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:17">
